--- a/datos/EOF.xlsx
+++ b/datos/EOF.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R35ea729201304253"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R3d8eed02ef0e4727"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -225,6 +225,17 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2009-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1.8</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
         <x:v>2010-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -234,7 +245,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="6">
       <x:c s="5" t="d">
         <x:v>2010-02-01T00:00:00.000</x:v>
       </x:c>
@@ -245,7 +256,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="7">
       <x:c s="5" t="d">
         <x:v>2010-03-01T00:00:00.000</x:v>
       </x:c>
@@ -256,7 +267,7 @@
         <x:v>3.02</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="8">
       <x:c s="5" t="d">
         <x:v>2010-04-01T00:00:00.000</x:v>
       </x:c>
@@ -267,7 +278,7 @@
         <x:v>3.345</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="9">
       <x:c s="5" t="d">
         <x:v>2010-05-01T00:00:00.000</x:v>
       </x:c>
@@ -278,7 +289,7 @@
         <x:v>3.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="10">
       <x:c s="5" t="d">
         <x:v>2010-06-01T00:00:00.000</x:v>
       </x:c>
@@ -289,7 +300,7 @@
         <x:v>3.15</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="11">
       <x:c s="5" t="d">
         <x:v>2010-07-01T00:00:00.000</x:v>
       </x:c>
@@ -300,7 +311,7 @@
         <x:v>3.15</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="12">
       <x:c s="5" t="d">
         <x:v>2010-08-01T00:00:00.000</x:v>
       </x:c>
@@ -311,7 +322,7 @@
         <x:v>3.24</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="13">
       <x:c s="5" t="d">
         <x:v>2010-09-01T00:00:00.000</x:v>
       </x:c>
@@ -322,7 +333,7 @@
         <x:v>3.145</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="14">
       <x:c s="5" t="d">
         <x:v>2010-10-01T00:00:00.000</x:v>
       </x:c>
@@ -333,7 +344,7 @@
         <x:v>3.05</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="15">
       <x:c s="5" t="d">
         <x:v>2010-11-01T00:00:00.000</x:v>
       </x:c>
@@ -344,7 +355,7 @@
         <x:v>3.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="16">
       <x:c s="5" t="d">
         <x:v>2010-12-01T00:00:00.000</x:v>
       </x:c>
@@ -355,7 +366,7 @@
         <x:v>3.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="17">
       <x:c s="5" t="d">
         <x:v>2011-01-01T00:00:00.000</x:v>
       </x:c>
@@ -366,7 +377,7 @@
         <x:v>3.45</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="18">
       <x:c s="5" t="d">
         <x:v>2011-02-01T00:00:00.000</x:v>
       </x:c>
@@ -377,7 +388,7 @@
         <x:v>3.55</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="19">
       <x:c s="5" t="d">
         <x:v>2011-03-01T00:00:00.000</x:v>
       </x:c>
@@ -388,7 +399,7 @@
         <x:v>3.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="20">
       <x:c s="5" t="d">
         <x:v>2011-04-01T00:00:00.000</x:v>
       </x:c>
@@ -399,7 +410,7 @@
         <x:v>3.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="21">
       <x:c s="5" t="d">
         <x:v>2011-05-01T00:00:00.000</x:v>
       </x:c>
@@ -410,7 +421,7 @@
         <x:v>3.45</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="22">
       <x:c s="5" t="d">
         <x:v>2011-06-01T00:00:00.000</x:v>
       </x:c>
@@ -421,7 +432,7 @@
         <x:v>3.325</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="23">
       <x:c s="5" t="d">
         <x:v>2011-07-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +443,7 @@
         <x:v>3.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="24">
       <x:c s="5" t="d">
         <x:v>2011-08-01T00:00:00.000</x:v>
       </x:c>
@@ -443,7 +454,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="25">
       <x:c s="5" t="d">
         <x:v>2011-09-01T00:00:00.000</x:v>
       </x:c>
@@ -454,7 +465,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="26">
       <x:c s="5" t="d">
         <x:v>2011-10-01T00:00:00.000</x:v>
       </x:c>
@@ -465,7 +476,7 @@
         <x:v>2.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="27">
       <x:c s="5" t="d">
         <x:v>2011-11-01T00:00:00.000</x:v>
       </x:c>
@@ -476,7 +487,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="28">
       <x:c s="5" t="d">
         <x:v>2011-12-01T00:00:00.000</x:v>
       </x:c>
@@ -487,7 +498,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="29">
       <x:c s="5" t="d">
         <x:v>2012-01-01T00:00:00.000</x:v>
       </x:c>
@@ -498,7 +509,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="30">
       <x:c s="5" t="d">
         <x:v>2012-02-01T00:00:00.000</x:v>
       </x:c>
@@ -509,7 +520,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="31">
       <x:c s="5" t="d">
         <x:v>2012-03-01T00:00:00.000</x:v>
       </x:c>
@@ -520,7 +531,7 @@
         <x:v>3.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="32">
       <x:c s="5" t="d">
         <x:v>2012-04-01T00:00:00.000</x:v>
       </x:c>
@@ -531,7 +542,7 @@
         <x:v>3.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="33">
       <x:c s="5" t="d">
         <x:v>2012-05-01T00:00:00.000</x:v>
       </x:c>
@@ -542,7 +553,7 @@
         <x:v>3.05</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="34">
       <x:c s="5" t="d">
         <x:v>2012-06-01T00:00:00.000</x:v>
       </x:c>
@@ -553,7 +564,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="35">
       <x:c s="5" t="d">
         <x:v>2012-07-01T00:00:00.000</x:v>
       </x:c>
@@ -564,7 +575,7 @@
         <x:v>2.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="36">
       <x:c s="5" t="d">
         <x:v>2012-08-01T00:00:00.000</x:v>
       </x:c>
@@ -575,7 +586,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="37">
       <x:c s="5" t="d">
         <x:v>2012-09-01T00:00:00.000</x:v>
       </x:c>
@@ -586,7 +597,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="38">
       <x:c s="5" t="d">
         <x:v>2012-10-01T00:00:00.000</x:v>
       </x:c>
@@ -597,7 +608,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="39">
       <x:c s="5" t="d">
         <x:v>2012-11-01T00:00:00.000</x:v>
       </x:c>
@@ -608,7 +619,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="40">
       <x:c s="5" t="d">
         <x:v>2012-12-01T00:00:00.000</x:v>
       </x:c>
@@ -619,7 +630,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="41">
       <x:c s="5" t="d">
         <x:v>2013-01-01T00:00:00.000</x:v>
       </x:c>
@@ -630,7 +641,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="42">
       <x:c s="5" t="d">
         <x:v>2013-02-01T00:00:00.000</x:v>
       </x:c>
@@ -641,7 +652,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="43">
       <x:c s="5" t="d">
         <x:v>2013-03-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +663,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="44">
       <x:c s="5" t="d">
         <x:v>2013-04-01T00:00:00.000</x:v>
       </x:c>
@@ -663,7 +674,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="45">
       <x:c s="5" t="d">
         <x:v>2013-05-01T00:00:00.000</x:v>
       </x:c>
@@ -674,7 +685,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="46">
       <x:c s="5" t="d">
         <x:v>2013-06-01T00:00:00.000</x:v>
       </x:c>
@@ -685,7 +696,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="47">
       <x:c s="5" t="d">
         <x:v>2013-07-01T00:00:00.000</x:v>
       </x:c>
@@ -696,7 +707,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="48">
       <x:c s="5" t="d">
         <x:v>2013-08-01T00:00:00.000</x:v>
       </x:c>
@@ -707,7 +718,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="48">
+    <x:row r="49">
       <x:c s="5" t="d">
         <x:v>2013-09-01T00:00:00.000</x:v>
       </x:c>
@@ -718,7 +729,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="49">
+    <x:row r="50">
       <x:c s="5" t="d">
         <x:v>2013-10-01T00:00:00.000</x:v>
       </x:c>
@@ -729,7 +740,7 @@
         <x:v>2.945</x:v>
       </x:c>
     </x:row>
-    <x:row r="50">
+    <x:row r="51">
       <x:c s="5" t="d">
         <x:v>2013-11-01T00:00:00.000</x:v>
       </x:c>
@@ -740,7 +751,7 @@
         <x:v>2.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="51">
+    <x:row r="52">
       <x:c s="5" t="d">
         <x:v>2013-12-01T00:00:00.000</x:v>
       </x:c>
@@ -751,7 +762,7 @@
         <x:v>2.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="52">
+    <x:row r="53">
       <x:c s="5" t="d">
         <x:v>2014-01-01T00:00:00.000</x:v>
       </x:c>
@@ -762,7 +773,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="53">
+    <x:row r="54">
       <x:c s="5" t="d">
         <x:v>2014-02-01T00:00:00.000</x:v>
       </x:c>
@@ -773,7 +784,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="54">
+    <x:row r="55">
       <x:c s="5" t="d">
         <x:v>2014-03-01T00:00:00.000</x:v>
       </x:c>
@@ -784,7 +795,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="55">
+    <x:row r="56">
       <x:c s="5" t="d">
         <x:v>2014-04-01T00:00:00.000</x:v>
       </x:c>
@@ -795,7 +806,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="56">
+    <x:row r="57">
       <x:c s="5" t="d">
         <x:v>2014-05-01T00:00:00.000</x:v>
       </x:c>
@@ -806,7 +817,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="57">
+    <x:row r="58">
       <x:c s="5" t="d">
         <x:v>2014-06-01T00:00:00.000</x:v>
       </x:c>
@@ -817,7 +828,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="58">
+    <x:row r="59">
       <x:c s="5" t="d">
         <x:v>2014-07-01T00:00:00.000</x:v>
       </x:c>
@@ -828,7 +839,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="59">
+    <x:row r="60">
       <x:c s="5" t="d">
         <x:v>2014-08-01T00:00:00.000</x:v>
       </x:c>
@@ -839,7 +850,7 @@
         <x:v>2.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="60">
+    <x:row r="61">
       <x:c s="5" t="d">
         <x:v>2014-09-01T00:00:00.000</x:v>
       </x:c>
@@ -850,7 +861,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="61">
+    <x:row r="62">
       <x:c s="5" t="d">
         <x:v>2014-10-01T00:00:00.000</x:v>
       </x:c>
@@ -861,7 +872,7 @@
         <x:v>2.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="62">
+    <x:row r="63">
       <x:c s="5" t="d">
         <x:v>2014-11-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +883,7 @@
         <x:v>2.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="63">
+    <x:row r="64">
       <x:c s="5" t="d">
         <x:v>2014-12-01T00:00:00.000</x:v>
       </x:c>
@@ -883,7 +894,7 @@
         <x:v>2.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="64">
+    <x:row r="65">
       <x:c s="5" t="d">
         <x:v>2015-01-01T00:00:00.000</x:v>
       </x:c>
@@ -894,7 +905,7 @@
         <x:v>2.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="65">
+    <x:row r="66">
       <x:c s="5" t="d">
         <x:v>2015-02-01T00:00:00.000</x:v>
       </x:c>
@@ -905,7 +916,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="66">
+    <x:row r="67">
       <x:c s="5" t="d">
         <x:v>2015-03-01T00:00:00.000</x:v>
       </x:c>
@@ -916,7 +927,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="67">
+    <x:row r="68">
       <x:c s="5" t="d">
         <x:v>2015-04-01T00:00:00.000</x:v>
       </x:c>
@@ -927,7 +938,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="68">
+    <x:row r="69">
       <x:c s="5" t="d">
         <x:v>2015-05-01T00:00:00.000</x:v>
       </x:c>
@@ -938,7 +949,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="69">
+    <x:row r="70">
       <x:c s="5" t="d">
         <x:v>2015-06-01T00:00:00.000</x:v>
       </x:c>
@@ -949,7 +960,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="70">
+    <x:row r="71">
       <x:c s="5" t="d">
         <x:v>2015-07-01T00:00:00.000</x:v>
       </x:c>
@@ -960,7 +971,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="71">
+    <x:row r="72">
       <x:c s="5" t="d">
         <x:v>2015-08-01T00:00:00.000</x:v>
       </x:c>
@@ -971,7 +982,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="72">
+    <x:row r="73">
       <x:c s="5" t="d">
         <x:v>2015-09-01T00:00:00.000</x:v>
       </x:c>
@@ -982,7 +993,7 @@
         <x:v>3.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="73">
+    <x:row r="74">
       <x:c s="5" t="d">
         <x:v>2015-10-01T00:00:00.000</x:v>
       </x:c>
@@ -993,7 +1004,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="74">
+    <x:row r="75">
       <x:c s="5" t="d">
         <x:v>2015-11-01T00:00:00.000</x:v>
       </x:c>
@@ -1004,7 +1015,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="75">
+    <x:row r="76">
       <x:c s="5" t="d">
         <x:v>2015-12-01T00:00:00.000</x:v>
       </x:c>
@@ -1015,7 +1026,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="76">
+    <x:row r="77">
       <x:c s="5" t="d">
         <x:v>2016-01-01T00:00:00.000</x:v>
       </x:c>
@@ -1026,7 +1037,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="77">
+    <x:row r="78">
       <x:c s="5" t="d">
         <x:v>2016-02-01T00:00:00.000</x:v>
       </x:c>
@@ -1037,7 +1048,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="78">
+    <x:row r="79">
       <x:c s="5" t="d">
         <x:v>2016-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1048,7 +1059,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="79">
+    <x:row r="80">
       <x:c s="5" t="d">
         <x:v>2016-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1059,7 +1070,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="80">
+    <x:row r="81">
       <x:c s="5" t="d">
         <x:v>2016-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1070,7 +1081,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="81">
+    <x:row r="82">
       <x:c s="5" t="d">
         <x:v>2016-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1081,7 +1092,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="82">
+    <x:row r="83">
       <x:c s="5" t="d">
         <x:v>2016-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +1103,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="83">
+    <x:row r="84">
       <x:c s="5" t="d">
         <x:v>2016-08-01T00:00:00.000</x:v>
       </x:c>
@@ -1103,7 +1114,7 @@
         <x:v>2.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="84">
+    <x:row r="85">
       <x:c s="5" t="d">
         <x:v>2016-09-01T00:00:00.000</x:v>
       </x:c>
@@ -1114,7 +1125,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="85">
+    <x:row r="86">
       <x:c s="5" t="d">
         <x:v>2016-10-01T00:00:00.000</x:v>
       </x:c>
@@ -1125,7 +1136,7 @@
         <x:v>2.975</x:v>
       </x:c>
     </x:row>
-    <x:row r="86">
+    <x:row r="87">
       <x:c s="5" t="d">
         <x:v>2016-11-01T00:00:00.000</x:v>
       </x:c>
@@ -1136,7 +1147,7 @@
         <x:v>2.925</x:v>
       </x:c>
     </x:row>
-    <x:row r="87">
+    <x:row r="88">
       <x:c s="5" t="d">
         <x:v>2016-12-01T00:00:00.000</x:v>
       </x:c>
@@ -1147,7 +1158,7 @@
         <x:v>2.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="88">
+    <x:row r="89">
       <x:c s="5" t="d">
         <x:v>2017-01-01T00:00:00.000</x:v>
       </x:c>
@@ -1158,7 +1169,7 @@
         <x:v>2.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="89">
+    <x:row r="90">
       <x:c s="5" t="d">
         <x:v>2017-02-01T00:00:00.000</x:v>
       </x:c>
@@ -1169,7 +1180,7 @@
         <x:v>2.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="90">
+    <x:row r="91">
       <x:c s="5" t="d">
         <x:v>2017-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1180,7 +1191,7 @@
         <x:v>2.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="91">
+    <x:row r="92">
       <x:c s="5" t="d">
         <x:v>2017-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1191,7 +1202,7 @@
         <x:v>2.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="92">
+    <x:row r="93">
       <x:c s="5" t="d">
         <x:v>2017-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1202,7 +1213,7 @@
         <x:v>2.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="93">
+    <x:row r="94">
       <x:c s="5" t="d">
         <x:v>2017-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1213,7 +1224,7 @@
         <x:v>2.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="94">
+    <x:row r="95">
       <x:c s="5" t="d">
         <x:v>2017-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1224,7 +1235,7 @@
         <x:v>2.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="95">
+    <x:row r="96">
       <x:c s="5" t="d">
         <x:v>2017-08-01T00:00:00.000</x:v>
       </x:c>
@@ -1235,7 +1246,7 @@
         <x:v>2.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="96">
+    <x:row r="97">
       <x:c s="5" t="d">
         <x:v>2017-09-01T00:00:00.000</x:v>
       </x:c>
@@ -1246,7 +1257,7 @@
         <x:v>2.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="97">
+    <x:row r="98">
       <x:c s="5" t="d">
         <x:v>2017-10-01T00:00:00.000</x:v>
       </x:c>
@@ -1257,7 +1268,7 @@
         <x:v>2.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="98">
+    <x:row r="99">
       <x:c s="5" t="d">
         <x:v>2017-11-01T00:00:00.000</x:v>
       </x:c>
@@ -1268,7 +1279,7 @@
         <x:v>2.675</x:v>
       </x:c>
     </x:row>
-    <x:row r="99">
+    <x:row r="100">
       <x:c s="5" t="d">
         <x:v>2017-12-01T00:00:00.000</x:v>
       </x:c>
@@ -1279,7 +1290,7 @@
         <x:v>2.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="100">
+    <x:row r="101">
       <x:c s="5" t="d">
         <x:v>2018-01-01T00:00:00.000</x:v>
       </x:c>
@@ -1290,7 +1301,7 @@
         <x:v>2.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="101">
+    <x:row r="102">
       <x:c s="5" t="d">
         <x:v>2018-02-01T00:00:00.000</x:v>
       </x:c>
@@ -1301,7 +1312,7 @@
         <x:v>2.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="102">
+    <x:row r="103">
       <x:c s="5" t="d">
         <x:v>2018-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1312,7 +1323,7 @@
         <x:v>2.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="103">
+    <x:row r="104">
       <x:c s="5" t="d">
         <x:v>2018-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1323,7 +1334,7 @@
         <x:v>2.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="104">
+    <x:row r="105">
       <x:c s="5" t="d">
         <x:v>2018-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1334,7 +1345,7 @@
         <x:v>2.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="105">
+    <x:row r="106">
       <x:c s="5" t="d">
         <x:v>2018-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1345,7 +1356,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="106">
+    <x:row r="107">
       <x:c s="5" t="d">
         <x:v>2018-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1356,7 +1367,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="107">
+    <x:row r="108">
       <x:c s="5" t="d">
         <x:v>2018-08-01T00:00:00.000</x:v>
       </x:c>
@@ -1367,7 +1378,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="108">
+    <x:row r="109">
       <x:c s="5" t="d">
         <x:v>2018-09-01T00:00:00.000</x:v>
       </x:c>
@@ -1378,7 +1389,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="109">
+    <x:row r="110">
       <x:c s="5" t="d">
         <x:v>2018-10-01T00:00:00.000</x:v>
       </x:c>
@@ -1389,7 +1400,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="110">
+    <x:row r="111">
       <x:c s="5" t="d">
         <x:v>2018-11-01T00:00:00.000</x:v>
       </x:c>
@@ -1400,7 +1411,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="111">
+    <x:row r="112">
       <x:c s="5" t="d">
         <x:v>2018-12-01T00:00:00.000</x:v>
       </x:c>
@@ -1411,7 +1422,7 @@
         <x:v>2.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="112">
+    <x:row r="113">
       <x:c s="5" t="d">
         <x:v>2019-01-01T00:00:00.000</x:v>
       </x:c>
@@ -1422,7 +1433,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="113">
+    <x:row r="114">
       <x:c s="5" t="d">
         <x:v>2019-02-01T00:00:00.000</x:v>
       </x:c>
@@ -1433,7 +1444,7 @@
         <x:v>2.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="114">
+    <x:row r="115">
       <x:c s="5" t="d">
         <x:v>2019-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1444,7 +1455,7 @@
         <x:v>2.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="115">
+    <x:row r="116">
       <x:c s="5" t="d">
         <x:v>2019-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1455,7 +1466,7 @@
         <x:v>2.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="116">
+    <x:row r="117">
       <x:c s="5" t="d">
         <x:v>2019-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1466,7 +1477,7 @@
         <x:v>2.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="117">
+    <x:row r="118">
       <x:c s="5" t="d">
         <x:v>2019-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1477,7 +1488,7 @@
         <x:v>2.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="118">
+    <x:row r="119">
       <x:c s="5" t="d">
         <x:v>2019-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1488,7 +1499,7 @@
         <x:v>2.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="119">
+    <x:row r="120">
       <x:c s="5" t="d">
         <x:v>2019-08-01T00:00:00.000</x:v>
       </x:c>
@@ -1499,7 +1510,7 @@
         <x:v>2.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="120">
+    <x:row r="121">
       <x:c s="5" t="d">
         <x:v>2019-09-01T00:00:00.000</x:v>
       </x:c>
@@ -1510,7 +1521,7 @@
         <x:v>2.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="121">
+    <x:row r="122">
       <x:c s="5" t="d">
         <x:v>2019-10-01T00:00:00.000</x:v>
       </x:c>
@@ -1521,7 +1532,7 @@
         <x:v>2.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="122">
+    <x:row r="123">
       <x:c s="5" t="d">
         <x:v>2019-11-01T00:00:00.000</x:v>
       </x:c>
@@ -1532,7 +1543,7 @@
         <x:v>2.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="123">
+    <x:row r="124">
       <x:c s="5" t="d">
         <x:v>2019-12-01T00:00:00.000</x:v>
       </x:c>
@@ -1543,7 +1554,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="124">
+    <x:row r="125">
       <x:c s="5" t="d">
         <x:v>2020-01-01T00:00:00.000</x:v>
       </x:c>
@@ -1554,7 +1565,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="125">
+    <x:row r="126">
       <x:c s="5" t="d">
         <x:v>2020-02-01T00:00:00.000</x:v>
       </x:c>
@@ -1565,7 +1576,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="126">
+    <x:row r="127">
       <x:c s="5" t="d">
         <x:v>2020-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1576,7 +1587,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="127">
+    <x:row r="128">
       <x:c s="5" t="d">
         <x:v>2020-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1587,7 +1598,7 @@
         <x:v>2.835</x:v>
       </x:c>
     </x:row>
-    <x:row r="128">
+    <x:row r="129">
       <x:c s="5" t="d">
         <x:v>2020-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1598,7 +1609,7 @@
         <x:v>2.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="129">
+    <x:row r="130">
       <x:c s="5" t="d">
         <x:v>2020-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1609,7 +1620,7 @@
         <x:v>2.55</x:v>
       </x:c>
     </x:row>
-    <x:row r="130">
+    <x:row r="131">
       <x:c s="5" t="d">
         <x:v>2020-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1620,7 +1631,7 @@
         <x:v>2.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="131">
+    <x:row r="132">
       <x:c s="5" t="d">
         <x:v>2020-08-01T00:00:00.000</x:v>
       </x:c>
@@ -1631,7 +1642,7 @@
         <x:v>2.65</x:v>
       </x:c>
     </x:row>
-    <x:row r="132">
+    <x:row r="133">
       <x:c s="5" t="d">
         <x:v>2020-09-01T00:00:00.000</x:v>
       </x:c>
@@ -1642,7 +1653,7 @@
         <x:v>2.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="133">
+    <x:row r="134">
       <x:c s="5" t="d">
         <x:v>2020-10-01T00:00:00.000</x:v>
       </x:c>
@@ -1653,7 +1664,7 @@
         <x:v>2.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="134">
+    <x:row r="135">
       <x:c s="5" t="d">
         <x:v>2020-11-01T00:00:00.000</x:v>
       </x:c>
@@ -1664,7 +1675,7 @@
         <x:v>2.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="135">
+    <x:row r="136">
       <x:c s="5" t="d">
         <x:v>2020-12-01T00:00:00.000</x:v>
       </x:c>
@@ -1675,7 +1686,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="136">
+    <x:row r="137">
       <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
@@ -1686,7 +1697,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="137">
+    <x:row r="138">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -1697,7 +1708,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="138">
+    <x:row r="139">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1708,7 +1719,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="139">
+    <x:row r="140">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1719,7 +1730,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="140">
+    <x:row r="141">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1730,7 +1741,7 @@
         <x:v>3.065</x:v>
       </x:c>
     </x:row>
-    <x:row r="141">
+    <x:row r="142">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1741,7 +1752,7 @@
         <x:v>3.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="142">
+    <x:row r="143">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1752,7 +1763,7 @@
         <x:v>3.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="143">
+    <x:row r="144">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -1763,7 +1774,7 @@
         <x:v>3.35</x:v>
       </x:c>
     </x:row>
-    <x:row r="144">
+    <x:row r="145">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -1774,7 +1785,7 @@
         <x:v>3.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="145">
+    <x:row r="146">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -1785,7 +1796,7 @@
         <x:v>3.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="146">
+    <x:row r="147">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -1796,7 +1807,7 @@
         <x:v>3.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="147">
+    <x:row r="148">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -1805,6 +1816,17 @@
       </x:c>
       <x:c s="11" t="n">
         <x:v>3.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149">
+      <x:c s="5" t="d">
+        <x:v>2022-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4.85</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3.95</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/datos/EOF.xlsx
+++ b/datos/EOF.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="Rc511146860874b40"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R681df3916d0c4671"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1829,6 +1829,61 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
+    <x:row r="150">
+      <x:c s="5" t="d">
+        <x:v>2022-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.4</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151">
+      <x:c s="5" t="d">
+        <x:v>2022-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152">
+      <x:c s="5" t="d">
+        <x:v>2022-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6.775</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153">
+      <x:c s="5" t="d">
+        <x:v>2022-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6.9</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154">
+      <x:c s="5" t="d">
+        <x:v>2022-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7.85</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4.6</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:mergeCells>
     <x:mergeCell ref="A1:J1"/>
